--- a/DATA_goal/Junction_Flooding_352.xlsx
+++ b/DATA_goal/Junction_Flooding_352.xlsx
@@ -443,18 +443,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.78</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_352.xlsx
+++ b/DATA_goal/Junction_Flooding_352.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45033.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45033.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.47</v>
+        <v>19.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.34</v>
+        <v>15.468</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.466</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.63</v>
+        <v>44.248</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.52</v>
+        <v>36.535</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.76</v>
+        <v>16.067</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.44</v>
+        <v>57.758</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>25.022</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.92</v>
+        <v>11.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.32</v>
+        <v>17.254</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.64</v>
+        <v>18.385</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.24</v>
+        <v>18.987</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.71</v>
+        <v>5.192</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>15.826</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>22.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.52</v>
+        <v>13.431</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.283</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.754</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23999999999999</v>
+        <v>238.458</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.89</v>
+        <v>45.119</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>14.759</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.83</v>
+        <v>29.971</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.7</v>
+        <v>16.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.2</v>
+        <v>2.119</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.02</v>
+        <v>29.232</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>13.107</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.58</v>
+        <v>12.323</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.32</v>
+        <v>14.551</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7</v>
+        <v>19.337</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.63</v>
+        <v>52.403</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.89</v>
+        <v>8.923</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45033.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.56</v>
+        <v>2.344</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.78</v>
+        <v>2.088</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.005</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.6</v>
+        <v>5.787</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.23</v>
+        <v>4.712</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.09</v>
+        <v>2.122</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.17</v>
+        <v>15.662</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>3.536</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.52</v>
+        <v>1.847</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.82</v>
+        <v>2.696</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.84</v>
+        <v>2.787</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.34</v>
+        <v>2.571</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.745</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>1.985</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.3</v>
+        <v>3.254</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.75</v>
+        <v>1.891</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.187</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.78</v>
+        <v>26.914</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.75</v>
+        <v>6.761</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>1.951</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.57</v>
+        <v>4.292</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.03</v>
+        <v>2.746</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.5</v>
+        <v>7.187</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>1.803</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.96</v>
+        <v>2.136</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.62</v>
+        <v>2.507</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.15</v>
+        <v>2.932</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.35</v>
+        <v>14.831</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.58</v>
+        <v>1.444</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.07</v>
+        <v>2.367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45033.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.71</v>
+        <v>11.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.69</v>
+        <v>8.94</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.34</v>
+        <v>25.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.26</v>
+        <v>21.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.87</v>
+        <v>9.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.69</v>
+        <v>34.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.63</v>
+        <v>14.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.03</v>
+        <v>6.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.62</v>
+        <v>10.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.34</v>
+        <v>10.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.66</v>
+        <v>11.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.84</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>9.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.15</v>
+        <v>13.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.79</v>
+        <v>7.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.47</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>26.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>8.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.48</v>
+        <v>17.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.86</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.58</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.67</v>
+        <v>16.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>7.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.3</v>
+        <v>7.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.68</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.51</v>
+        <v>11.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.63</v>
+        <v>30.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.43</v>
+        <v>5.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>10.67</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_352.xlsx
+++ b/DATA_goal/Junction_Flooding_352.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45033.50694444445</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45033.51388888889</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.9</v>
+        <v>7.469</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.468</v>
+        <v>5.341</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.466</v>
+        <v>1.46</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.248</v>
+        <v>16.633</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.535</v>
+        <v>12.522</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.067</v>
+        <v>5.756</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>57.758</v>
+        <v>23.437</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.022</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.45</v>
+        <v>3.921</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.254</v>
+        <v>5.319</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.385</v>
+        <v>6.636</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.987</v>
+        <v>7.241</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.192</v>
+        <v>1.713</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.826</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.88</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.431</v>
+        <v>5.521</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.283</v>
+        <v>1.262</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.754</v>
+        <v>0.511</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.458</v>
+        <v>84.238</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.119</v>
+        <v>16.886</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.759</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.971</v>
+        <v>10.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.66</v>
+        <v>5.699</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.119</v>
+        <v>1.198</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.232</v>
+        <v>12.024</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.107</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.323</v>
+        <v>4.579</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.551</v>
+        <v>5.317</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.337</v>
+        <v>6.997</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.419</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.403</v>
+        <v>21.632</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.923</v>
+        <v>2.889</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.276</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45033.52083333334</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.344</v>
+        <v>6.562</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.088</v>
+        <v>4.781</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.005</v>
+        <v>0.974</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.787</v>
+        <v>14.596</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.712</v>
+        <v>11.231</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.122</v>
+        <v>5.089</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.662</v>
+        <v>21.168</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.536</v>
+        <v>8.115</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.847</v>
+        <v>3.518</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.696</v>
+        <v>4.818</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.787</v>
+        <v>5.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.571</v>
+        <v>6.344</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.745</v>
+        <v>1.526</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.985</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.254</v>
+        <v>7.299</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.891</v>
+        <v>4.747</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.101</v>
+        <v>0.854</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.187</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.914</v>
+        <v>72.783</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.761</v>
+        <v>14.751</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.951</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.292</v>
+        <v>9.574999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.746</v>
+        <v>5.035</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.296</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.187</v>
+        <v>10.497</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.803</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.136</v>
+        <v>3.961</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.507</v>
+        <v>4.619</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.932</v>
+        <v>6.146</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.281</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.831</v>
+        <v>19.354</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.444</v>
+        <v>2.575</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.367</v>
+        <v>6.074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45033.52777777778</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.59</v>
+        <v>3.712</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.94</v>
+        <v>2.691</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.673</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.77</v>
+        <v>8.342000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.22</v>
+        <v>6.262</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.33</v>
+        <v>2.868</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.17</v>
+        <v>13.694</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.6</v>
+        <v>4.626</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.65</v>
+        <v>2.028</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>2.623</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.154</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.466</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.526999999999999</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.485</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6.669</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.512</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>12.626</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>10.04</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>135.55</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.67</v>
+      <c r="Q6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_352.xlsx
+++ b/DATA_goal/Junction_Flooding_352.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45033.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45033.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.469</v>
+        <v>19.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.341</v>
+        <v>15.468</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.466</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.633</v>
+        <v>44.248</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.522</v>
+        <v>36.535</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.756</v>
+        <v>16.067</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.437</v>
+        <v>57.758</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.276999999999999</v>
+        <v>25.022</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.921</v>
+        <v>11.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.319</v>
+        <v>17.254</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.636</v>
+        <v>18.385</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.241</v>
+        <v>18.987</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.713</v>
+        <v>5.192</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>15.826</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>22.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.521</v>
+        <v>13.431</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.262</v>
+        <v>0.283</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.511</v>
+        <v>0.754</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.238</v>
+        <v>238.458</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.886</v>
+        <v>45.119</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>14.759</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.83</v>
+        <v>29.971</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.699</v>
+        <v>16.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.198</v>
+        <v>2.119</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.024</v>
+        <v>29.232</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>13.107</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.579</v>
+        <v>12.323</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.317</v>
+        <v>14.551</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.997</v>
+        <v>19.337</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.632</v>
+        <v>52.403</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.889</v>
+        <v>8.923</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.942</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45033.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.562</v>
+        <v>2.344</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.781</v>
+        <v>2.088</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.974</v>
+        <v>0.005</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.596</v>
+        <v>5.787</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.231</v>
+        <v>4.712</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.089</v>
+        <v>2.122</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.168</v>
+        <v>15.662</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.115</v>
+        <v>3.536</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.518</v>
+        <v>1.847</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.818</v>
+        <v>2.696</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.84</v>
+        <v>2.787</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.344</v>
+        <v>2.571</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.526</v>
+        <v>0.745</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>1.985</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.299</v>
+        <v>3.254</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.747</v>
+        <v>1.891</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.854</v>
+        <v>0.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.187</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.783</v>
+        <v>26.914</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.751</v>
+        <v>6.761</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>1.951</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.574999999999999</v>
+        <v>4.292</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.035</v>
+        <v>2.746</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.497</v>
+        <v>7.187</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>1.803</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.961</v>
+        <v>2.136</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.619</v>
+        <v>2.507</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.146</v>
+        <v>2.932</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.354</v>
+        <v>14.831</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.575</v>
+        <v>1.444</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.074</v>
+        <v>2.367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45033.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.712</v>
+        <v>11.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.691</v>
+        <v>8.94</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.673</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.342000000000001</v>
+        <v>25.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.262</v>
+        <v>21.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.868</v>
+        <v>9.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.694</v>
+        <v>34.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.626</v>
+        <v>14.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.028</v>
+        <v>6.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.623</v>
+        <v>10.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.338</v>
+        <v>10.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.664</v>
+        <v>11.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.838</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>9.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.154</v>
+        <v>13.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.792</v>
+        <v>7.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.634</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.222</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.466</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.526999999999999</v>
+        <v>26.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>8.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.485</v>
+        <v>17.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.857</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.578</v>
+        <v>1.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.669</v>
+        <v>16.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.452</v>
+        <v>7.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.304</v>
+        <v>7.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.679</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.512</v>
+        <v>11.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.626</v>
+        <v>30.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.432</v>
+        <v>5.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.472</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>10.67</v>
       </c>
     </row>
   </sheetData>
